--- a/test_firmware/MAX2871 Reg/register_calculator.xlsx
+++ b/test_firmware/MAX2871 Reg/register_calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\00_Adriel\00_Proyectos\deFacultad\pocket-analyzer\firmware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\00_Adriel\00_Proyectos\deFacultad\pocket-analyzer\test_firmware\MAX2871 Reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A80B5-4B8F-4785-894D-E413ED4326FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7003D-B860-4429-B4F4-C2600844A30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1FBF93BD-84B7-4D50-88DF-B29F0C38A755}"/>
   </bookViews>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -326,7 +326,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,7 +669,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
@@ -908,7 +907,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.6640625" bestFit="1" customWidth="1"/>
@@ -1222,7 +1221,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.6640625" bestFit="1" customWidth="1"/>
@@ -1314,7 +1313,7 @@
       <c r="A5" s="7">
         <v>31</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="8" t="str">
         <f>MID(L3,(1),(1))</f>
         <v>0</v>
       </c>
@@ -1796,7 +1795,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.77734375" customWidth="1"/>
@@ -2150,11 +2149,11 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2642,10 +2641,10 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.109375" customWidth="1"/>

--- a/test_firmware/MAX2871 Reg/register_calculator.xlsx
+++ b/test_firmware/MAX2871 Reg/register_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\00_Adriel\00_Proyectos\deFacultad\pocket-analyzer\test_firmware\MAX2871 Reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7003D-B860-4429-B4F4-C2600844A30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CF69B1-361F-46F4-B1A4-9C7024C1FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1FBF93BD-84B7-4D50-88DF-B29F0C38A755}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FBF93BD-84B7-4D50-88DF-B29F0C38A755}"/>
   </bookViews>
   <sheets>
     <sheet name="REG0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <t>Registro 0</t>
   </si>
@@ -235,10 +235,13 @@
     <t>804E8000</t>
   </si>
   <si>
-    <t>0C0041D2</t>
-  </si>
-  <si>
-    <t>61F8006C</t>
+    <t>61F801FC</t>
+  </si>
+  <si>
+    <t>10004FD2</t>
+  </si>
+  <si>
+    <t>00008011</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,7 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +717,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="2" t="str">
@@ -904,7 +906,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,12 +954,12 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>80008011</v>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>TEXT(HEX2BIN(MID($B3,C2,1)),"0000")</f>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:J3" si="0">TEXT(HEX2BIN(MID($B3,D2,1)),"0000")</f>
@@ -989,7 +991,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>_xlfn.CONCAT(C3:J3)</f>
-        <v>10000000000000001000000000010001</v>
+        <v>00000000000000001000000000010001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1001,7 +1003,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>MID(L3,(1),(1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1217,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,15 +1269,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>TEXT(HEX2BIN(MID($B3,C2,1)),"0000")</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:J3" si="0">TEXT(HEX2BIN(MID($B3,D2,1)),"0000")</f>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1291,7 +1293,7 @@
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0001</v>
+        <v>1111</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1303,7 +1305,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>_xlfn.CONCAT(C3:J3)</f>
-        <v>00001100000000000100000111010010</v>
+        <v>00010000000000000100111111010010</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1373,11 +1375,11 @@
       </c>
       <c r="B9" s="10" t="str">
         <f>MID(L$3,(32-28),(28-25))</f>
-        <v>011</v>
+        <v>100</v>
       </c>
       <c r="C9" s="10" t="str">
         <f>MID($B9,1,4)</f>
-        <v>011</v>
+        <v>100</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -1388,7 +1390,7 @@
       </c>
       <c r="C10" s="2" t="str">
         <f>BIN2HEX(C9,)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -1399,7 +1401,7 @@
       </c>
       <c r="C11" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C10:F10))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -1623,11 +1625,11 @@
       </c>
       <c r="B24" s="8" t="str">
         <f>MID(L$3,(32-12),(12-8))</f>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="C24" s="10" t="str">
         <f>MID($B24,1,4)</f>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="D24" s="10" t="str">
         <f>MID($B24,5,4)</f>
@@ -1646,7 +1648,7 @@
       </c>
       <c r="C25" s="2" t="str">
         <f>BIN2HEX(C24,)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1659,7 +1661,7 @@
       </c>
       <c r="C26" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C25:F25))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -2149,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>TEXT(HEX2BIN(MID($B3,C2,1)),"0000")</f>
@@ -2222,11 +2224,11 @@
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0110</v>
+        <v>1111</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2234,7 +2236,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>_xlfn.CONCAT(C3:J3)</f>
-        <v>01100001111110000000000001101100</v>
+        <v>01100001111110000000000111111100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2473,7 +2475,7 @@
       </c>
       <c r="B21" s="11" t="str">
         <f>MID(L$3,(32-8),1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10"/>
       <c r="G21" s="9"/>
@@ -2484,11 +2486,11 @@
       </c>
       <c r="B22" s="8" t="str">
         <f>MID(L$3,(32-7),(2))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="C22" s="10" t="str">
         <f>MID($B22,1,4)</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="D22" s="10" t="str">
         <f>MID($B22,5,4)</f>
@@ -2511,7 +2513,7 @@
       </c>
       <c r="C23" s="2" t="str">
         <f>BIN2HEX(C22,)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2524,7 +2526,7 @@
       </c>
       <c r="C24" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C23:F23))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -2545,11 +2547,11 @@
       </c>
       <c r="B26" s="8" t="str">
         <f>MID(L$3,(32-4),(2))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="C26" s="10" t="str">
         <f>MID($B26,1,4)</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="D26" s="10" t="str">
         <f>MID($B26,5,4)</f>
@@ -2572,7 +2574,7 @@
       </c>
       <c r="C27" s="2" t="str">
         <f>BIN2HEX(C26,)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2584,7 +2586,7 @@
       </c>
       <c r="C28" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C27:F27))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2641,7 +2643,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_firmware/MAX2871 Reg/register_calculator.xlsx
+++ b/test_firmware/MAX2871 Reg/register_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\00_Adriel\00_Proyectos\deFacultad\pocket-analyzer\test_firmware\MAX2871 Reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CF69B1-361F-46F4-B1A4-9C7024C1FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88BED2-8A5F-4058-8041-65EA7BBD4AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FBF93BD-84B7-4D50-88DF-B29F0C38A755}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>Registro 0</t>
   </si>
@@ -232,23 +232,26 @@
     <t>01400005</t>
   </si>
   <si>
-    <t>804E8000</t>
-  </si>
-  <si>
-    <t>61F801FC</t>
-  </si>
-  <si>
-    <t>10004FD2</t>
-  </si>
-  <si>
     <t>00008011</t>
+  </si>
+  <si>
+    <t>60F1D0F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAND SELECT  = </t>
+  </si>
+  <si>
+    <t>00034FD2</t>
+  </si>
+  <si>
+    <t>83FA8000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +276,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -305,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -328,6 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,10 +683,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>TEXT(HEX2BIN(MID($B3,C2,1)),"0000")</f>
@@ -726,15 +744,15 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:J3" si="0">TEXT(HEX2BIN(MID($B3,D2,1)),"0000")</f>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0100</v>
+        <v>1111</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -754,7 +772,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>_xlfn.CONCAT(C3:J3)</f>
-        <v>10000000010011101000000000000000</v>
+        <v>10000011111110101000000000000000</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -773,7 +791,7 @@
       </c>
       <c r="B6" s="10" t="str">
         <f>MID(L3,2,16)</f>
-        <v>0000000010011101</v>
+        <v>0000011111110101</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>MID($B6,1,4)</f>
@@ -781,15 +799,15 @@
       </c>
       <c r="D6" s="8" t="str">
         <f>MID($B6,5,4)</f>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="E6" s="8" t="str">
         <f>MID($B6,9,4)</f>
-        <v>1001</v>
+        <v>1111</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>MID($B6,13,4)</f>
-        <v>1101</v>
+        <v>0101</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -803,15 +821,15 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:F7" si="1">BIN2HEX(D6,)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>F</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -821,7 +839,7 @@
       </c>
       <c r="C8">
         <f>HEX2DEC(_xlfn.CONCAT(C7:F7))</f>
-        <v>157</v>
+        <v>2037</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -894,6 +912,9 @@
         <v>8</v>
       </c>
       <c r="G12" s="9"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -955,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>TEXT(HEX2BIN(MID($B3,C2,1)),"0000")</f>
@@ -1219,8 +1240,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,11 +1290,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>TEXT(HEX2BIN(MID($B3,C2,1)),"0000")</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:J3" si="0">TEXT(HEX2BIN(MID($B3,D2,1)),"0000")</f>
@@ -1285,7 +1306,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1305,7 +1326,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>_xlfn.CONCAT(C3:J3)</f>
-        <v>00010000000000000100111111010010</v>
+        <v>00000000000000110100111111010010</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1375,11 +1396,11 @@
       </c>
       <c r="B9" s="10" t="str">
         <f>MID(L$3,(32-28),(28-25))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="C9" s="10" t="str">
         <f>MID($B9,1,4)</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -1390,7 +1411,7 @@
       </c>
       <c r="C10" s="2" t="str">
         <f>BIN2HEX(C9,)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -1401,7 +1422,7 @@
       </c>
       <c r="C11" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C10:F10))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -1523,19 +1544,19 @@
       </c>
       <c r="B18" s="8" t="str">
         <f>MID(L$3,(32-23),(23-13))</f>
-        <v>0000000001</v>
+        <v>0000001101</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>MID($B18,1,4)</f>
-        <v>0000</v>
+        <f>MID($B18,1,2)</f>
+        <v>00</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>MID($B18,5,4)</f>
+        <f>MID($B18,3,4)</f>
         <v>0000</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f>MID($B18,9,4)</f>
-        <v>01</v>
+        <f>MID($B18,7,4)</f>
+        <v>1101</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>MID($B18,13,4)</f>
@@ -1558,7 +1579,7 @@
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>D</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1569,7 +1590,7 @@
       </c>
       <c r="C20" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C19:F19))</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -2151,8 +2172,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,35 +2229,35 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:J3" si="0">TEXT(HEX2BIN(MID($B3,D2,1)),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>0001</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1111</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0000</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0001</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1111</v>
-      </c>
       <c r="J3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="L3" s="2" t="str">
         <f>_xlfn.CONCAT(C3:J3)</f>
-        <v>01100001111110000000000111111100</v>
+        <v>01100000111100011101000011110100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2300,11 +2321,11 @@
       </c>
       <c r="B8" s="8" t="str">
         <f>MID(L$3,(32-25),(2))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>MID($B8,1,4)</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>MID($B8,5,4)</f>
@@ -2327,7 +2348,7 @@
       </c>
       <c r="C9" s="2" t="str">
         <f>BIN2HEX(C8,)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="G9" s="6"/>
@@ -2339,7 +2360,7 @@
       </c>
       <c r="C10" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C9:F9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -2398,17 +2419,24 @@
       </c>
       <c r="B15" s="8" t="str">
         <f>MID(L$3,(32-19),(19-11))</f>
-        <v>10000000</v>
+        <v>00011101</v>
       </c>
       <c r="C15" s="10" t="str">
         <f>MID($B15,1,4)</f>
-        <v>1000</v>
+        <v>0001</v>
       </c>
       <c r="D15" s="10" t="str">
         <f>MID($B15,5,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>1101</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
+        <f>C17+16*16*C10</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -2417,11 +2445,11 @@
       </c>
       <c r="C16" s="2" t="str">
         <f>BIN2HEX(C15,)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>BIN2HEX(D15,)</f>
-        <v>0</v>
+        <v>D</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -2432,7 +2460,7 @@
       </c>
       <c r="C17" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C16:F16))</f>
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -2475,7 +2503,7 @@
       </c>
       <c r="B21" s="11" t="str">
         <f>MID(L$3,(32-8),1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="10"/>
       <c r="G21" s="9"/>
@@ -2547,11 +2575,11 @@
       </c>
       <c r="B26" s="8" t="str">
         <f>MID(L$3,(32-4),(2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="10" t="str">
         <f>MID($B26,1,4)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="10" t="str">
         <f>MID($B26,5,4)</f>
@@ -2574,7 +2602,7 @@
       </c>
       <c r="C27" s="2" t="str">
         <f>BIN2HEX(C26,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2586,7 +2614,7 @@
       </c>
       <c r="C28" s="2">
         <f>HEX2DEC(_xlfn.CONCAT(C27:F27))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2630,6 +2658,9 @@
       <c r="A32" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2643,7 +2674,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
